--- a/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 02/02_02/Splitting Columns with Dynamic Arrays.xlsx
+++ b/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 02/02_02/Splitting Columns with Dynamic Arrays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emgarcia/Downloads/02_02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgizaykov/Desktop/Data-Science-Projects/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 02/02_02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4987997D-B41A-9244-8B8B-3D115DFD094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D3E525-CBF5-E345-B429-3BDA57FBC62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="1080" windowWidth="19800" windowHeight="11220" xr2:uid="{565CED48-65F1-4BE1-97E7-1DE5AB35133A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{565CED48-65F1-4BE1-97E7-1DE5AB35133A}"/>
   </bookViews>
   <sheets>
     <sheet name="Dynamic Arrays" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>Car | Style | Transmission | Color | Miles | Year</t>
   </si>
@@ -151,6 +173,108 @@
   </si>
   <si>
     <t>Daggett, Ben, 2-SEP-17, 555-3042, Married</t>
+  </si>
+  <si>
+    <t>095-MJX</t>
+  </si>
+  <si>
+    <t>Coupe</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>119-943</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>236-536</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>303-M68</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>317-221</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>36P-14L</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>419-G39</t>
+  </si>
+  <si>
+    <t>500-25H</t>
+  </si>
+  <si>
+    <t>511-F0F</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>671-200</t>
+  </si>
+  <si>
+    <t>741-TH5</t>
+  </si>
+  <si>
+    <t>A2A-050</t>
+  </si>
+  <si>
+    <t>B78-000</t>
+  </si>
+  <si>
+    <t>CLC-039</t>
+  </si>
+  <si>
+    <t>EY7-CCF</t>
+  </si>
+  <si>
+    <t>G53-186</t>
+  </si>
+  <si>
+    <t>H31-2FZ</t>
+  </si>
+  <si>
+    <t>RY2-444</t>
+  </si>
+  <si>
+    <t>Mini Van</t>
+  </si>
+  <si>
+    <t>W56-014</t>
+  </si>
+  <si>
+    <t>736-218</t>
+  </si>
+  <si>
+    <t>GA2-205</t>
   </si>
 </sst>
 </file>
@@ -496,228 +620,805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297B199D-0F4D-4BD4-94B7-1E86EF97441A}">
-  <dimension ref="B1:B24"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>80055</v>
+      </c>
+      <c r="H2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>103205</v>
+      </c>
+      <c r="H3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>95315</v>
+      </c>
+      <c r="H4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>60600</v>
+      </c>
+      <c r="H5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>71000</v>
+      </c>
+      <c r="H6">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>13404</v>
+      </c>
+      <c r="H7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>151310</v>
+      </c>
+      <c r="H8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>37535</v>
+      </c>
+      <c r="H9">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>101143</v>
+      </c>
+      <c r="H10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>108680</v>
+      </c>
+      <c r="H11">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>28500</v>
+      </c>
+      <c r="H12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>60110</v>
+      </c>
+      <c r="H13">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14">
+        <v>13085</v>
+      </c>
+      <c r="H14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>77310</v>
+      </c>
+      <c r="H15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>42425</v>
+      </c>
+      <c r="H16">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>128240</v>
+      </c>
+      <c r="H17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>119489</v>
+      </c>
+      <c r="H18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>94500</v>
+      </c>
+      <c r="H19">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>32000</v>
+      </c>
+      <c r="H20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>51616</v>
+      </c>
+      <c r="H21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22">
+        <v>17299</v>
+      </c>
+      <c r="H22">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33641FCB-3432-4706-84D3-98BC769ADA87}">
-  <dimension ref="B1:B16"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2:F2">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B2,", ",4), ", ")</f>
+        <v>Ray</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Tyrone</v>
+      </c>
+      <c r="E2" t="str">
+        <v>20-AUG-17</v>
+      </c>
+      <c r="F2" t="str">
+        <v>555-2823</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3:F3">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B3,", ",4), ", ")</f>
+        <v>Burton</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Jessica</v>
+      </c>
+      <c r="E3" t="str">
+        <v>29-APR-17</v>
+      </c>
+      <c r="F3" t="str">
+        <v>555-0859</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str" cm="1">
+        <f t="array" ref="C4:F4">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B4,", ",4), ", ")</f>
+        <v>Daggett</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2-SEP-17</v>
+      </c>
+      <c r="F4" t="str">
+        <v>555-3042</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5:F5">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B5,", ",4), ", ")</f>
+        <v>Lazio</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Wu</v>
+      </c>
+      <c r="E5" t="str">
+        <v>24-JAN-15</v>
+      </c>
+      <c r="F5" t="str">
+        <v>555-4494</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6:F6">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B6,", ",4), ", ")</f>
+        <v>Jackson</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Nichols</v>
+      </c>
+      <c r="E6" t="str">
+        <v>25-NOV-16</v>
+      </c>
+      <c r="F6" t="str">
+        <v>555-0637</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str" cm="1">
+        <f t="array" ref="C7:F7">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B7,", ",4), ", ")</f>
+        <v>Anwell</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Rock</v>
+      </c>
+      <c r="E7" t="str">
+        <v>21-AUG-16</v>
+      </c>
+      <c r="F7" t="str">
+        <v>555-1104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str" cm="1">
+        <f t="array" ref="C8:F8">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B8,", ",4), ", ")</f>
+        <v>McGrath</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Martina</v>
+      </c>
+      <c r="E8" t="str">
+        <v>23-FEB-18</v>
+      </c>
+      <c r="F8" t="str">
+        <v>555-3308</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str" cm="1">
+        <f t="array" ref="C9:F9">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B9,", ",4), ", ")</f>
+        <v>Durant</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Celia</v>
+      </c>
+      <c r="E9" t="str">
+        <v>26-MAY-19</v>
+      </c>
+      <c r="F9" t="str">
+        <v>555-1975</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str" cm="1">
+        <f t="array" ref="C10:F10">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B10,", ",4), ", ")</f>
+        <v>Ivy</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Jessica</v>
+      </c>
+      <c r="E10" t="str">
+        <v>7-SEP-15</v>
+      </c>
+      <c r="F10" t="str">
+        <v>555-6182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="str" cm="1">
+        <f t="array" ref="C11:F11">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B11,", ",4), ", ")</f>
+        <v>Burton</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Molly</v>
+      </c>
+      <c r="E11" t="str">
+        <v>31-OCT-20</v>
+      </c>
+      <c r="F11" t="str">
+        <v>555-7728</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="str" cm="1">
+        <f t="array" ref="C12:F12">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B12,", ",4), ", ")</f>
+        <v>Wagner</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Cyndi</v>
+      </c>
+      <c r="E12" t="str">
+        <v>9-DEC-18</v>
+      </c>
+      <c r="F12" t="str">
+        <v>555-3160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str" cm="1">
+        <f t="array" ref="C13:F13">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B13,", ",4), ", ")</f>
+        <v>Sutter</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Kriss</v>
+      </c>
+      <c r="E13" t="str">
+        <v>3-JUL-16</v>
+      </c>
+      <c r="F13" t="str">
+        <v>555-1430</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="str" cm="1">
+        <f t="array" ref="C14:F14">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B14,", ",4), ", ")</f>
+        <v>Daggett</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Andrew</v>
+      </c>
+      <c r="E14" t="str">
+        <v>13-DEC-16</v>
+      </c>
+      <c r="F14" t="str">
+        <v>555-5466</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="str" cm="1">
+        <f t="array" ref="C15:F15">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B15,", ",4), ", ")</f>
+        <v>Gwynn</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Maple</v>
+      </c>
+      <c r="E15" t="str">
+        <v>23-MAY-17</v>
+      </c>
+      <c r="F15" t="str">
+        <v>555-6219</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
+      </c>
+      <c r="C16" t="str" cm="1">
+        <f t="array" ref="C16:F16">_xlfn.TEXTSPLIT(_xlfn.TEXTBEFORE(B16,", ",4), ", ")</f>
+        <v>McCole</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Penny</v>
+      </c>
+      <c r="E16" t="str">
+        <v>19-APR-16</v>
+      </c>
+      <c r="F16" t="str">
+        <v>555-5333</v>
       </c>
     </row>
   </sheetData>
